--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>3.56</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.64</v>
+        <v>3.11</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.1</v>
+        <v>2.17</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>2.58</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>3.08</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.69</v>
+        <v>3.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.31</v>
+        <v>2.9</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.08</v>
+        <v>3.73</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.85</v>
+        <v>5.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>6.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.56</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.06</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.17</v>
+        <v>4.69</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>9.31</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.57</v>
+        <v>3.64</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.87</v>
+        <v>4.1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.51</v>
+        <v>4.7</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>4.23</v>
+        <v>3.29</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.21</v>
+        <v>3.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.26</v>
+        <v>4.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.23</v>
+        <v>4.21</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>4.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.79</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.79</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4.24</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.06</v>
+        <v>3.77</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>5.72</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>4.79</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>4.55</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.57</v>
+        <v>4.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.69</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.18</v>
+        <v>2.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.55</v>
+        <v>2.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.93</v>
+        <v>2.57</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.71</v>
+        <v>3.69</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.74</v>
+        <v>5.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>6.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>2.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.67</v>
+        <v>3.18</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.72</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.02</v>
+        <v>5.3</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.34</v>
+        <v>7.72</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,190 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-fermana/40ebNqcG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-olbia/l6AcJzdr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.17</v>
+        <v>3.64</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.3</v>
+        <v>3.69</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.69</v>
+        <v>4.1</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>9.31</v>
+        <v>4.7</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.64</v>
+        <v>3.17</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>4.3</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.1</v>
+        <v>4.69</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.7</v>
+        <v>9.31</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
       <c r="J15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
         <v>3.26</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:17</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.26</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.44</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1861,62 +1861,62 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.98</v>
+        <v>3.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.77</v>
+        <v>3.54</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.88</v>
+        <v>2.23</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Lucchese</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.29</v>
+        <v>4.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.93</v>
+        <v>2.66</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>19/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>19/09/2023 18:22</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>18/09/2023 06:42</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>19/09/2023 18:22</t>
-        </is>
-      </c>
       <c r="R30" t="n">
-        <v>1.71</v>
+        <v>2.94</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3241,46 +3241,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.66</v>
+        <v>4.93</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.95</v>
+        <v>3.36</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,24 +3288,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.94</v>
+        <v>1.71</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.43</v>
+        <v>1.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.02</v>
+        <v>5.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.55</v>
+        <v>6.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>3.43</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>2.76</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.58</v>
+        <v>3.47</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.02</v>
+        <v>2.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.34</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Spal</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.74</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.18</v>
+        <v>3.67</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.61</v>
+        <v>7.72</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.49</v>
+        <v>2.74</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.67</v>
+        <v>3.18</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>7.72</v>
+        <v>2.61</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.16</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.49</v>
+        <v>3.03</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.44</v>
+        <v>4.03</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>3.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>4.04</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.27</v>
+        <v>5.4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.03</v>
+        <v>1.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.48</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,466 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>05/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-us-pontedera/8hxy2ZQ7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-pescara/INJROdYK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45207.86458333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45207.86458333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45207.86458333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.96</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2.73</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>16/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,48 +3080,48 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>16/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="R29" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>2.83</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,282 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45208.86458333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45208.86458333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45208.86458333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>09/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:31</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>09/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
       <c r="J26" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.78</v>
+        <v>2.96</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.76</v>
+        <v>2.73</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.39</v>
+        <v>2.81</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.39</v>
+        <v>2.83</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.73</v>
+        <v>3.76</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.81</v>
+        <v>4.39</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.83</v>
+        <v>4.39</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,98 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45210.67708333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-lucchese/zLsCBnb4/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6897,6 +6897,98 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45210.86458333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-pescara/nonIk5yo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
       <c r="J18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>3.26</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:17</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.26</v>
+        <v>3.88</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>5.4</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2.73</v>
+        <v>3.76</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.81</v>
+        <v>4.39</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.83</v>
+        <v>4.39</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>2.96</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>16/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>6.94</v>
+        <v>2.83</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.76</v>
+        <v>3.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.39</v>
+        <v>5.35</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.39</v>
+        <v>6.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.55</v>
+        <v>2.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.93</v>
+        <v>2.54</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.36</v>
+        <v>2.77</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>2.99</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>4.55</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.36</v>
+        <v>4.93</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.58</v>
+        <v>3.43</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.72</v>
+        <v>2.55</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>5.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.61</v>
+        <v>6.34</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>4.04</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>5.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.22</v>
+        <v>1.84</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>6.19</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.84</v>
+        <v>6.22</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>6.19</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,190 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-pescara/nonIk5yo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45214.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45214.58333333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.23</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.21</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Lucchese</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.29</v>
+        <v>4.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2045,62 +2045,62 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>3.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.77</v>
+        <v>3.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.88</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.77</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.42</v>
+        <v>5.72</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.03</v>
+        <v>4.79</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>2.53</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.79</v>
+        <v>3.03</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.51</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.36</v>
+        <v>2.57</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.87</v>
+        <v>3.69</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.18</v>
+        <v>2.92</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.55</v>
+        <v>2.65</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.93</v>
+        <v>2.54</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.36</v>
+        <v>2.77</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.83</v>
+        <v>2.99</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.09</v>
+        <v>4.55</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.57</v>
+        <v>4.93</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.69</v>
+        <v>1.71</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Spal</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.74</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.18</v>
+        <v>3.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.61</v>
+        <v>7.72</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.3</v>
+        <v>5.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.72</v>
+        <v>6.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.84</v>
+        <v>6.22</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>6.19</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>4.04</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.61</v>
+        <v>5.4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.22</v>
+        <v>1.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.19</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.49</v>
+        <v>4.99</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.32</v>
+        <v>6.14</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.9</v>
+        <v>4.21</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.54</v>
+        <v>1.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,374 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45214.67708333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45214.67708333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:00</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:00</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:00</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>1.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.02</v>
+        <v>3.77</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.97</v>
+        <v>5.72</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.01</v>
+        <v>4.79</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.79</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.79</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>4.83</v>
+        <v>2.49</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.25</v>
+        <v>2.32</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>2.83</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>3.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,190 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45215.86458333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>16/10/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45215.86458333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>12/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.64</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.08</v>
+        <v>3.69</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.57</v>
+        <v>3.17</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.73</v>
+        <v>4.3</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.87</v>
+        <v>4.69</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.51</v>
+        <v>9.31</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sestri Levante</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.74</v>
+        <v>2.58</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.17</v>
+        <v>3.57</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.3</v>
+        <v>3.73</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.69</v>
+        <v>5.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>9.31</v>
+        <v>6.51</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.24</v>
+        <v>3.54</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.16</v>
+        <v>2.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.34</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.26</v>
+        <v>2.33</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>2.24</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.26</v>
+        <v>3.16</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Lucchese</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.29</v>
+        <v>4.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.24</v>
+        <v>1.79</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.06</v>
+        <v>3.77</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>5.72</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>4.79</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.79</v>
+        <v>4.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.77</v>
+        <v>3.06</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.72</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.79</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3149,46 +3149,46 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.66</v>
+        <v>4.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.95</v>
+        <v>3.36</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,24 +3196,24 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.94</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.18</v>
+        <v>2.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.09</v>
+        <v>2.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.18</v>
+        <v>2.77</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.07</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.69</v>
+        <v>2.82</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.55</v>
+        <v>2.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.93</v>
+        <v>2.57</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.71</v>
+        <v>3.69</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.3</v>
+        <v>5.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.72</v>
+        <v>6.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.6</v>
+        <v>3.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.18</v>
+        <v>3.47</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.71</v>
+        <v>6.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.53</v>
+        <v>3.59</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>6.46</v>
+        <v>3.71</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75</v>
+        <v>4.04</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>5.4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,11 +6592,11 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,926 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45221.67708333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-olbia/zsyiTBP6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45222.85416666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-carrarese/4daEpDfs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45222.86458333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-spal/lQxqVXff/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.29</v>
+        <v>1.98</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.54</v>
+        <v>1.77</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>09/09/2023 18:06</t>
         </is>
       </c>
-      <c r="N14" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.23</v>
+        <v>3.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.21</v>
+        <v>3.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,282 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-spal/lQxqVXff/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45224.77083333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45224.77083333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>24/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-sassari-torres/IPhsvTwP/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,62 +1677,62 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.98</v>
+        <v>3.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.77</v>
+        <v>3.54</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.88</v>
+        <v>2.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.23</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.21</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.26</v>
+        <v>4.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.23</v>
+        <v>4.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.33</v>
+        <v>3.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.24</v>
+        <v>3.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.16</v>
+        <v>2.26</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.34</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.29</v>
+        <v>2.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.54</v>
+        <v>2.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>3.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>3.34</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.79</v>
+        <v>4.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.77</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.72</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.79</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.24</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>3.77</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.42</v>
+        <v>5.72</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>4.79</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.76</v>
+        <v>4.94</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.39</v>
+        <v>5.89</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.39</v>
+        <v>10.93</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.96</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2.73</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>16/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.39</v>
+        <v>3.76</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>4.39</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.94</v>
+        <v>4.39</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>2.73</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.89</v>
+        <v>2.81</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.93</v>
+        <v>2.83</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>4.04</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>5.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.22</v>
+        <v>1.84</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>6.19</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.16</v>
+        <v>1.61</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.06</v>
+        <v>3.67</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.49</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.44</v>
+        <v>6.22</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.88</v>
+        <v>6.19</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.99</v>
+        <v>4.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,11 +6776,11 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R69" t="n">
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.48</v>
+        <v>2.01</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>2.09</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/10/2023 19:56</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.03</v>
+        <v>3.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>5.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.63</v>
+        <v>3.54</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>9.140000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:41</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.01</v>
+        <v>1.48</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 19:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.11</v>
+        <v>4.03</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.12</v>
+        <v>5.11</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.54</v>
+        <v>5.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.88</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:41</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>2.5</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:24</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.62</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>5.08</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>5.06</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.18</v>
+        <v>1.63</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.61</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>3.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,558 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-sassari-torres/IPhsvTwP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45225.77083333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45225.77083333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45225.77083333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45225.77083333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45225.77083333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45225.86458333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-perugia/bJAkrujt/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>2.41</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>02/09/2023 10:46</t>
+          <t>02/09/2023 11:26</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.23</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4.67</v>
+        <v>2.99</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>02/09/2023 20:39</t>
+          <t>02/09/2023 18:47</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.35</v>
+        <v>3.3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.98</v>
+        <v>3.21</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>02/09/2023 20:39</t>
+          <t>02/09/2023 11:26</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-vis-pesaro/SvC6w2nL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sassari-torres/6PNcuOH8/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Torres</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>02/09/2023 11:26</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.84</v>
+        <v>3.66</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2.99</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>02/09/2023 18:47</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.21</v>
+        <v>3.77</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>02/09/2023 11:26</t>
+          <t>02/09/2023 20:25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sassari-torres/6PNcuOH8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.66</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.57</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 18:49</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.92</v>
+        <v>4.9</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.77</v>
+        <v>4.89</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:25</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 10:46</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>4.23</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.57</v>
+        <v>4.67</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>02/09/2023 18:49</t>
+          <t>02/09/2023 20:39</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.9</v>
+        <v>8.35</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.89</v>
+        <v>9.98</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 20:39</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-vis-pesaro/SvC6w2nL/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.49</v>
+        <v>4.99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>6.14</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.9</v>
+        <v>4.21</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.54</v>
+        <v>1.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.01</v>
+        <v>1.48</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 19:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.11</v>
+        <v>4.03</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.12</v>
+        <v>5.11</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.54</v>
+        <v>5.63</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.88</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:41</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.48</v>
+        <v>2.01</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>2.09</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/10/2023 19:56</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.03</v>
+        <v>3.11</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.63</v>
+        <v>3.54</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>9.140000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:41</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,32 +8156,32 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>3.08</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>24/10/2023 21:12</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>26/10/2023 18:26</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="P95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>26/10/2023 18:02</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>24/10/2023 21:12</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>26/10/2023 18:26</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:12</t>
-        </is>
-      </c>
       <c r="T95" t="n">
-        <v>2.48</v>
+        <v>4.8</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>3.08</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.72</v>
+        <v>2.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.29</v>
+        <v>2.48</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,834 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-perugia/bJAkrujt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:19</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-recanatese/W4nQsWec/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45228.86458333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45228.86458333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45229.86458333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45229.86458333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45229.86458333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45229.86458333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.56</v>
+        <v>1.75</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.06</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.17</v>
+        <v>4.69</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.44</v>
+        <v>9.31</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sestri Levante</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.74</v>
+        <v>2.58</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.17</v>
+        <v>3.57</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.3</v>
+        <v>3.73</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.69</v>
+        <v>5.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>9.31</v>
+        <v>6.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.93</v>
+        <v>3.56</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.58</v>
+        <v>3.06</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.85</v>
+        <v>2.17</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.57</v>
+        <v>3.64</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.87</v>
+        <v>4.1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.51</v>
+        <v>4.7</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.24</v>
+        <v>1.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.41</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>02/09/2023 11:26</t>
+          <t>02/09/2023 10:46</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.84</v>
+        <v>4.23</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2.99</v>
+        <v>4.67</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>02/09/2023 18:47</t>
+          <t>02/09/2023 20:39</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.3</v>
+        <v>8.35</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.21</v>
+        <v>9.98</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>02/09/2023 11:26</t>
+          <t>02/09/2023 20:39</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sassari-torres/6PNcuOH8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-vis-pesaro/SvC6w2nL/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 11:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>2.99</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 18:47</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.77</v>
+        <v>3.21</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>02/09/2023 20:25</t>
+          <t>02/09/2023 11:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sassari-torres/6PNcuOH8/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/09/2023 18:49</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.9</v>
+        <v>3.92</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.89</v>
+        <v>3.77</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 20:25</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02/09/2023 10:46</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.23</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.67</v>
+        <v>3.57</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>02/09/2023 20:39</t>
+          <t>02/09/2023 18:49</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>8.35</v>
+        <v>4.9</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>9.98</v>
+        <v>4.89</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>02/09/2023 20:39</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-vis-pesaro/SvC6w2nL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.29</v>
+        <v>3.26</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.54</v>
+        <v>3.23</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,15 +1800,15 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1816,24 +1816,24 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>3.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>3.34</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -2045,30 +2045,30 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2076,15 +2076,15 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2092,24 +2092,24 @@
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.16</v>
+        <v>3.88</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.34</v>
+        <v>5.4</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.24</v>
+        <v>2.53</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.06</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>3.42</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>3.03</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>4.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.94</v>
+        <v>3.76</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.89</v>
+        <v>4.39</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>10.93</v>
+        <v>4.39</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,48 +2896,48 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>2.96</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>16/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="R27" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>6.94</v>
+        <v>2.83</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.76</v>
+        <v>3.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.39</v>
+        <v>5.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.39</v>
+        <v>6.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.96</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>3.84</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.73</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.81</v>
+        <v>5.89</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.83</v>
+        <v>10.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.71</v>
+        <v>3.43</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>2.76</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.58</v>
+        <v>3.47</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.02</v>
+        <v>2.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.34</v>
+        <v>2.55</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.74</v>
+        <v>5.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>6.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>2.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.67</v>
+        <v>3.18</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.24</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.72</v>
+        <v>2.61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.53</v>
+        <v>3.59</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.46</v>
+        <v>3.71</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.71</v>
+        <v>6.46</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.55</v>
+        <v>3.06</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.25</v>
+        <v>2.96</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:19</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.18</v>
+        <v>2.87</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:06</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:19</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-ancona/zL3sRRci/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-sassari-torres/MuMf3O5p/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.06</v>
+        <v>2.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.96</v>
+        <v>2.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:19</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.87</v>
+        <v>3.18</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:06</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:19</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-sassari-torres/MuMf3O5p/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-ancona/zL3sRRci/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.84</v>
+        <v>3.03</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.03</v>
+        <v>4.72</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>7.15</v>
+        <v>5.29</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.84</v>
+        <v>3.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.92</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.28</v>
+        <v>2.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>3.08</v>
+        <v>1.67</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.92</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.84</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.2</v>
+        <v>3.84</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.41</v>
+        <v>5.03</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.48</v>
+        <v>7.15</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,98 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45232.77083333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-pineto/2TGDFhe7/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.17</v>
+        <v>3.57</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.3</v>
+        <v>3.73</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.69</v>
+        <v>5.87</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>9.31</v>
+        <v>6.51</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.58</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.17</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.08</v>
+        <v>4.3</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>4.69</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.9</v>
+        <v>9.31</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.87</v>
+        <v>3.85</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.58</v>
+        <v>3.83</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.27</v>
+        <v>3.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.83</v>
+        <v>3.58</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.97</v>
+        <v>4.27</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>2.5</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:24</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>5.08</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>5.06</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>3.08</v>
+        <v>1.67</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.92</v>
+        <v>1.52</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.84</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.2</v>
+        <v>3.84</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.41</v>
+        <v>5.03</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.48</v>
+        <v>7.15</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.67</v>
+        <v>3.08</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.84</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.84</v>
+        <v>3.2</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.03</v>
+        <v>2.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.15</v>
+        <v>2.48</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.28</v>
+        <v>3.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>6.35</v>
+        <v>4.34</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.34</v>
+        <v>6.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,282 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-pineto/2TGDFhe7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>02/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.87</v>
+        <v>3.85</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.08</v>
+        <v>3.73</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.85</v>
+        <v>5.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>6.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.18</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.13</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.18</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.53</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>5.08</v>
+        <v>2.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.06</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.4</v>
+        <v>3.84</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.41</v>
+        <v>5.03</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4</v>
+        <v>7.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.67</v>
+        <v>3.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>2.84</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.84</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.03</v>
+        <v>2.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.15</v>
+        <v>2.48</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.41</v>
+        <v>4.72</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.48</v>
+        <v>5.29</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.96</v>
+        <v>3.28</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.35</v>
+        <v>4.34</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.92</v>
+        <v>3.4</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.01</v>
+        <v>2.85</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.34</v>
+        <v>2.35</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,374 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45235.67708333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-juventus/SW14ekQd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45235.86458333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-perugia/bHwsvleM/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.93</v>
+        <v>3.56</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.58</v>
+        <v>3.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.85</v>
+        <v>2.17</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.17</v>
+        <v>3.64</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>3.69</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.69</v>
+        <v>4.1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.31</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.56</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.06</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.17</v>
+        <v>4.69</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>9.31</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Sestri Levante</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.74</v>
+        <v>2.58</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.26</v>
+        <v>2.33</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.23</v>
+        <v>2.24</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.26</v>
+        <v>3.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.33</v>
+        <v>3.26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.24</v>
+        <v>3.23</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.16</v>
+        <v>2.26</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.34</v>
+        <v>2.44</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>4.23</v>
+        <v>1.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.21</v>
+        <v>1.77</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>3.88</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>5.4</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.53</v>
+        <v>4.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.42</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.24</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>4.16</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.24</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.03</v>
+        <v>3.49</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.03</v>
+        <v>2.44</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.48</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.84</v>
+        <v>6.22</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>6.19</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75</v>
+        <v>4.04</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>5.4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.61</v>
+        <v>2.27</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.67</v>
+        <v>3.24</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.22</v>
+        <v>4.03</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.19</v>
+        <v>3.48</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.06</v>
+        <v>2.55</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.96</v>
+        <v>2.25</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:19</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.87</v>
+        <v>3.18</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:06</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 13:19</t>
+          <t>01/10/2023 13:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-sassari-torres/MuMf3O5p/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-ancona/zL3sRRci/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.55</v>
+        <v>3.06</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.25</v>
+        <v>2.96</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:19</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.18</v>
+        <v>2.87</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:06</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 13:56</t>
+          <t>01/10/2023 13:19</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-ancona/zL3sRRci/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-sassari-torres/MuMf3O5p/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.45</v>
+        <v>2.31</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.52</v>
+        <v>2.81</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.04</v>
+        <v>2.97</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.22</v>
+        <v>2.99</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>8.31</v>
+        <v>3.47</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-olbia/l6AcJzdr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:54</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.81</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2.97</v>
+        <v>4.04</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.99</v>
+        <v>5.22</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.47</v>
+        <v>8.31</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:54</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-olbia/l6AcJzdr/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.83</v>
+        <v>3.58</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.97</v>
+        <v>4.27</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.58</v>
+        <v>3.83</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.27</v>
+        <v>3.97</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.62</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>5.08</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>5.06</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.18</v>
+        <v>1.63</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.53</v>
+        <v>3.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:27</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.02</v>
+        <v>3.55</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.07</v>
+        <v>4.14</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:27</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.14</v>
+        <v>5.07</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -10049,30 +10049,30 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
         <v>1</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
       <c r="J105" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,15 +10080,15 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,15 +10096,15 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.09</v>
+        <v>4.28</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.35</v>
+        <v>6.35</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10141,30 +10141,30 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.28</v>
+        <v>3.09</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.35</v>
+        <v>2.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10417,15 +10417,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.88</v>
+        <v>3.26</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.16</v>
+        <v>3.58</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -10509,15 +10509,15 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,282 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-perugia/bHwsvleM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45236.85416666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-spal/Em0CgTf9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45236.86458333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45236.86458333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.56</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.06</v>
+        <v>1.74</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.11</v>
+        <v>3.69</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.17</v>
+        <v>4.1</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.64</v>
+        <v>3.17</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.69</v>
+        <v>4.3</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.1</v>
+        <v>4.69</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.7</v>
+        <v>9.31</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.73</v>
+        <v>3.08</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.87</v>
+        <v>3.85</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.51</v>
+        <v>2.9</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>3.56</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>3.06</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.3</v>
+        <v>3.11</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.69</v>
+        <v>2.17</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>9.31</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.08</v>
+        <v>3.73</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.85</v>
+        <v>5.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.9</v>
+        <v>6.51</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
       <c r="J15" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Lucchese</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.29</v>
+        <v>4.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.24</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.77</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.42</v>
+        <v>5.72</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.03</v>
+        <v>4.79</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>4.24</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.77</v>
+        <v>3.06</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.72</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.79</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.55</v>
+        <v>2.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.93</v>
+        <v>2.57</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.71</v>
+        <v>3.69</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>2.82</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.09</v>
+        <v>4.55</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.57</v>
+        <v>4.93</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.69</v>
+        <v>1.71</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Spal</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.74</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.18</v>
+        <v>3.67</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.61</v>
+        <v>7.72</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.3</v>
+        <v>5.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>7.72</v>
+        <v>6.34</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,32 +8156,32 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,190 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>3.56</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.64</v>
+        <v>3.11</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.69</v>
+        <v>3.11</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.1</v>
+        <v>2.17</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 20:20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>2.58</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.17</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.3</v>
+        <v>3.08</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.69</v>
+        <v>3.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.31</v>
+        <v>2.9</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.08</v>
+        <v>3.73</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.85</v>
+        <v>5.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>6.51</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.56</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.06</v>
+        <v>1.74</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.11</v>
+        <v>3.69</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.17</v>
+        <v>4.1</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:20</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-perugia/rix3Jtek/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.57</v>
+        <v>3.17</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.73</v>
+        <v>4.3</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.87</v>
+        <v>4.69</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.51</v>
+        <v>9.31</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.54</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>09/09/2023 18:06</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1861,62 +1861,62 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.98</v>
+        <v>3.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.77</v>
+        <v>3.54</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.88</v>
+        <v>2.23</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.4</v>
+        <v>2.18</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>4.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.79</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.79</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4.24</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.06</v>
+        <v>3.77</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>5.72</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>4.79</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>2.53</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.18</v>
+        <v>2.95</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>19/09/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>19/09/2023 18:28</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>19/09/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>19/09/2023 18:29</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.51</v>
+        <v>4.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.36</v>
+        <v>4.93</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.18</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.55</v>
+        <v>2.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.93</v>
+        <v>2.57</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.71</v>
+        <v>3.69</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.43</v>
+        <v>1.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.02</v>
+        <v>5.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.55</v>
+        <v>6.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>3.43</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.18</v>
+        <v>3.47</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.16</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.49</v>
+        <v>3.03</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.44</v>
+        <v>4.03</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>3.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.83</v>
+        <v>4.04</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.27</v>
+        <v>5.4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.03</v>
+        <v>1.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.48</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:54</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>2.81</v>
+        <v>3.52</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.97</v>
+        <v>4.04</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:53</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.99</v>
+        <v>5.22</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.47</v>
+        <v>8.31</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 13:54</t>
+          <t>08/10/2023 13:57</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-olbia/l6AcJzdr/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.45</v>
+        <v>2.31</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>2.81</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.04</v>
+        <v>2.97</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.22</v>
+        <v>2.99</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>8.31</v>
+        <v>3.47</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 13:57</t>
+          <t>08/10/2023 13:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-olbia/l6AcJzdr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-lucchese/dEIVNGmR/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.77</v>
+        <v>1.98</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.91</v>
+        <v>1.99</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.84</v>
+        <v>3.32</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.72</v>
+        <v>3.51</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-us-pontedera/8hxy2ZQ7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-pescara/INJROdYK/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.98</v>
+        <v>2.77</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.99</v>
+        <v>2.91</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.32</v>
+        <v>2.84</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.51</v>
+        <v>2.72</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-pescara/INJROdYK/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-us-pontedera/8hxy2ZQ7/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.7</v>
+        <v>2.74</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.37</v>
+        <v>2.91</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.06</v>
+        <v>2.93</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:36</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.71</v>
+        <v>2.68</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.74</v>
+        <v>1.7</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.92</v>
+        <v>1.93</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.91</v>
+        <v>3.37</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.93</v>
+        <v>3.06</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:36</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.55</v>
+        <v>4.8</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.68</v>
+        <v>4.71</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.53</v>
+        <v>3.21</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.59</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>2.98</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>5.08</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>5.06</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:27</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.14</v>
+        <v>5.07</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:27</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.02</v>
+        <v>3.55</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.07</v>
+        <v>4.14</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.84</v>
+        <v>3.03</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.03</v>
+        <v>4.72</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>7.15</v>
+        <v>5.29</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.84</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.72</v>
+        <v>5.03</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.29</v>
+        <v>7.15</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.92</v>
+        <v>3.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.01</v>
+        <v>2.85</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.34</v>
+        <v>2.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.96</v>
+        <v>3.28</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.35</v>
+        <v>4.34</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10417,15 +10417,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.08</v>
+        <v>2.53</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.31</v>
+        <v>2.52</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>3.01</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R111" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.67</v>
+        <v>4.02</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.8</v>
+        <v>4.44</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,63 +11253,63 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.02</v>
+        <v>3.67</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.44</v>
+        <v>3.8</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,623 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45242.67708333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-pineto/l6hPjRvS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J122" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:53</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O120" t="inlineStr">
+      <c r="L122" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O122" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
-      <c r="P120" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:53</t>
-        </is>
-      </c>
-      <c r="R120" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S120" t="inlineStr">
+      <c r="P122" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
-      <c r="T120" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:53</t>
-        </is>
-      </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+      <c r="T122" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-fermana/zHTg66vF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:40</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:03</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:03</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45242.86458333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
       <c r="J18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
         <v>3.26</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:17</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.26</v>
+        <v>3.88</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>5.4</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.55</v>
+        <v>2.65</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.93</v>
+        <v>2.54</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.36</v>
+        <v>2.77</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>2.99</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>4.55</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.36</v>
+        <v>4.93</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.83</v>
+        <v>3.36</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.58</v>
+        <v>3.43</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.72</v>
+        <v>2.55</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>5.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.61</v>
+        <v>6.34</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>4.04</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>5.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.22</v>
+        <v>1.84</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>6.19</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.84</v>
+        <v>6.22</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>6.19</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.28</v>
+        <v>4.8</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.52</v>
+        <v>4.71</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.37</v>
+        <v>3.05</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.8</v>
+        <v>3.28</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.71</v>
+        <v>3.52</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.48</v>
+        <v>2.01</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>2.09</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/10/2023 19:56</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.03</v>
+        <v>3.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>5.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.63</v>
+        <v>3.54</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>9.140000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:41</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.01</v>
+        <v>1.48</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 19:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.11</v>
+        <v>4.03</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.12</v>
+        <v>5.11</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.54</v>
+        <v>5.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.88</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:41</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>3.16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>2.22</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>2</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.81</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.59</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.76</v>
+        <v>3.08</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.72</v>
+        <v>2.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.29</v>
+        <v>2.48</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.08</v>
+        <v>2.16</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.92</v>
+        <v>1.94</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.41</v>
+        <v>3.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.41</v>
+        <v>4.72</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4</v>
+        <v>5.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -10417,15 +10417,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.88</v>
+        <v>3.26</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.16</v>
+        <v>3.58</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.83</v>
+        <v>3.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.53</v>
+        <v>2.08</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.52</v>
+        <v>3.31</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.01</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -10601,46 +10601,46 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.05</v>
+        <v>2.53</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.58</v>
+        <v>3.03</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,24 +10648,24 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.46</v>
+        <v>3.01</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>3.01</v>
+        <v>2.28</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.37</v>
+        <v>3.22</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.28</v>
+        <v>3.01</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.22</v>
+        <v>2.37</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.64</v>
+        <v>3.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.31</v>
+        <v>1.24</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.8</v>
+        <v>5.23</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2.81</v>
+        <v>5.54</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.74</v>
+        <v>9.94</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.5</v>
+        <v>14.54</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
       <c r="J124" t="n">
-        <v>1.63</v>
+        <v>2.64</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.35</v>
+        <v>2.74</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>5.23</v>
+        <v>3.31</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>5.54</v>
+        <v>3.04</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>9.94</v>
+        <v>5.35</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>14.54</v>
+        <v>4.03</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -12046,6 +12046,190 @@
       <c r="V126" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45243.86458333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-entella/2DYapPHe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45243.86458333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>09/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:12</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.98</v>
+        <v>2.77</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.99</v>
+        <v>2.91</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.32</v>
+        <v>2.84</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.71</v>
+        <v>2.89</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>05/10/2023 15:12</t>
+          <t>05/10/2023 14:42</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.51</v>
+        <v>2.72</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>08/10/2023 18:21</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-pescara/INJROdYK/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-us-pontedera/8hxy2ZQ7/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.77</v>
+        <v>1.98</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.91</v>
+        <v>1.99</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.84</v>
+        <v>3.32</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.89</v>
+        <v>3.71</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>05/10/2023 14:42</t>
+          <t>05/10/2023 15:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.72</v>
+        <v>3.51</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 18:21</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-us-pontedera/8hxy2ZQ7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-pescara/INJROdYK/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.92</v>
+        <v>2.13</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:36</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.55</v>
+        <v>3.28</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.68</v>
+        <v>3.52</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.7</v>
+        <v>2.74</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.37</v>
+        <v>2.91</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.06</v>
+        <v>2.93</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:36</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.71</v>
+        <v>2.68</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.28</v>
+        <v>4.8</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.52</v>
+        <v>4.71</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,32 +8156,32 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.53</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.41</v>
+        <v>4.72</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4</v>
+        <v>5.29</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -12230,6 +12230,190 @@
       <c r="V128" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45246.75</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>16/11/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>16/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>16/11/2023 17:54</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-rimini/ETyVtjB3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45246.86458333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>16/11/2023 20:45</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>16/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>24/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>16/11/2023 20:45</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-cesena/bgufuwza/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.23</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.21</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.26</v>
+        <v>4.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>4.21</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>3.26</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.77</v>
+        <v>3.23</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.88</v>
+        <v>2.26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.4</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.65</v>
+        <v>4.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.54</v>
+        <v>4.93</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.77</v>
+        <v>3.36</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.82</v>
+        <v>1.71</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.99</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.55</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.93</v>
+        <v>2.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.36</v>
+        <v>2.83</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.71</v>
+        <v>2.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.83</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.74</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.74</v>
+        <v>5.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.61</v>
+        <v>6.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.58</v>
+        <v>3.43</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.72</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>4.04</v>
+        <v>1.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5.4</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.84</v>
+        <v>6.22</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>6.19</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>4.04</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.61</v>
+        <v>5.4</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>6.22</v>
+        <v>1.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.19</v>
+        <v>1.71</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.28</v>
+        <v>4.8</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.52</v>
+        <v>4.71</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 20:40</t>
+          <t>08/10/2023 20:38</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.92</v>
+        <v>2.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:36</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.55</v>
+        <v>3.28</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.68</v>
+        <v>3.52</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>08/10/2023 20:44</t>
+          <t>08/10/2023 20:40</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-recanatese/MeQIQI38/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.7</v>
+        <v>2.74</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.37</v>
+        <v>2.91</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.06</v>
+        <v>2.93</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:36</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.71</v>
+        <v>2.68</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>08/10/2023 20:38</t>
+          <t>08/10/2023 20:44</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-vis-pesaro/GxOR5HRr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-juventus/zaUMPxJE/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>4.99</v>
+        <v>4.83</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,11 +6592,11 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>4.83</v>
+        <v>2.49</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.25</v>
+        <v>2.32</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>2.83</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>3.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.49</v>
+        <v>4.99</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.32</v>
+        <v>6.14</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.9</v>
+        <v>4.21</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.54</v>
+        <v>1.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.01</v>
+        <v>1.48</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.09</v>
+        <v>1.29</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 19:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.11</v>
+        <v>4.03</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.12</v>
+        <v>5.11</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:35</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.54</v>
+        <v>5.63</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.88</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/10/2023 20:41</t>
+          <t>16/10/2023 20:43</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.48</v>
+        <v>2.01</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.29</v>
+        <v>2.09</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/10/2023 19:56</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.03</v>
+        <v>3.11</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:35</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.63</v>
+        <v>3.54</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>9.140000000000001</v>
+        <v>3.88</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:43</t>
+          <t>16/10/2023 20:41</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-vis-pesaro/Iya0wdmE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-rimini/dSc4xG2K/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>2.5</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M84" t="inlineStr">
+      <c r="T84" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:24</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>5.08</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>5.06</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.54</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.18</v>
+        <v>1.63</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,32 +8432,32 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R87" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>3.08</v>
+        <v>2.16</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.92</v>
+        <v>1.94</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.41</v>
+        <v>3.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.84</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.72</v>
+        <v>5.03</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.29</v>
+        <v>7.15</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.67</v>
+        <v>3.08</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>2.84</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.84</v>
+        <v>3.2</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.03</v>
+        <v>2.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.15</v>
+        <v>2.48</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.28</v>
+        <v>3.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>6.35</v>
+        <v>4.34</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.34</v>
+        <v>6.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>3.09</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.16</v>
+        <v>2.35</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.28</v>
+        <v>3.01</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.22</v>
+        <v>2.37</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>3.01</v>
+        <v>2.28</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.37</v>
+        <v>3.22</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.64</v>
+        <v>3.38</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
         </is>
       </c>
     </row>
@@ -12414,6 +12414,558 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-cesena/bgufuwza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45248.67708333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-perugia/hEFPJP8E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45248.77083333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-recanatese/pjJTa4Hr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-arezzo/zuCtc211/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45249.67708333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>16/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:10</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>16/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>16/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:10</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-lucchese/tICxbrne/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45249.67708333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45249.67708333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>5</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.4</v>
+        <v>3.84</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.41</v>
+        <v>5.03</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4</v>
+        <v>7.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.84</v>
+        <v>3.34</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.03</v>
+        <v>4.28</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.15</v>
+        <v>4.8</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.65</v>
+        <v>1.92</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.16</v>
+        <v>4.34</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.34</v>
+        <v>6.35</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10141,30 +10141,30 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.28</v>
+        <v>3.09</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.35</v>
+        <v>2.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.89</v>
+        <v>5.85</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.12</v>
+        <v>6.56</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,163 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45250.77083333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>2</v>
       </c>
-      <c r="J136" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>16/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>16/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>16/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
+      <c r="J137" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>16/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>20/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-sassari-torres/6Le0DNor/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Lucchese</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.29</v>
+        <v>4.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.26</v>
+        <v>3.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.23</v>
+        <v>3.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.55</v>
+        <v>2.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.93</v>
+        <v>2.36</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.36</v>
+        <v>2.83</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.71</v>
+        <v>2.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>3.18</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.65</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.77</v>
+        <v>3.18</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.82</v>
+        <v>3.69</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.09</v>
+        <v>4.55</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.57</v>
+        <v>4.93</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.18</v>
+        <v>3.36</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.69</v>
+        <v>1.71</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.02</v>
+        <v>5.3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.34</v>
+        <v>7.72</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.43</v>
+        <v>1.71</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.02</v>
+        <v>5.02</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>6.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.58</v>
+        <v>3.43</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.72</v>
+        <v>2.55</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,11 +6592,11 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>1.84</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.12</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.29</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.59</v>
+        <v>2.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.98</v>
+        <v>3.61</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.5</v>
+        <v>3.18</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,32 +8248,32 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R85" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>2.5</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>19/10/2023 08:13</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M87" t="inlineStr">
+      <c r="T87" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U87" t="inlineStr">
         <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:24</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.84</v>
+        <v>3.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.82</v>
+        <v>2.92</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.28</v>
+        <v>2.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.41</v>
+        <v>4.72</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.48</v>
+        <v>5.29</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.29</v>
+        <v>4.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.84</v>
+        <v>2.21</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.44</v>
+        <v>2.76</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.28</v>
+        <v>3.31</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>6.35</v>
+        <v>3.16</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.21</v>
+        <v>1.84</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.65</v>
+        <v>1.65</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>4.28</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.16</v>
+        <v>6.35</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10417,15 +10417,15 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.08</v>
+        <v>2.53</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.31</v>
+        <v>2.52</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>3.01</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R111" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.64</v>
+        <v>3.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>5.23</v>
+        <v>3.31</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5.54</v>
+        <v>3.04</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>9.94</v>
+        <v>5.35</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>14.54</v>
+        <v>4.03</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.31</v>
+        <v>2.24</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.74</v>
+        <v>3.41</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.5</v>
+        <v>3.51</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>1</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
       <c r="J125" t="n">
-        <v>1.63</v>
+        <v>2.64</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>5.35</v>
+        <v>2.74</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
       <c r="J126" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.9</v>
+        <v>5.23</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.08</v>
+        <v>5.54</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.41</v>
+        <v>9.94</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.51</v>
+        <v>14.54</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.76</v>
+        <v>3.15</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.63</v>
+        <v>3.43</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.19</v>
+        <v>3.89</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>7.29</v>
+        <v>6.12</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-lucchese/tICxbrne/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.85</v>
+        <v>6.19</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.56</v>
+        <v>7.29</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-lucchese/tICxbrne/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.89</v>
+        <v>5.85</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>6.12</v>
+        <v>6.56</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,834 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-sassari-torres/6Le0DNor/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45255.67708333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:09</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:09</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45255.67708333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45255.77083333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-arezzo/pCf4Cs1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45255.77083333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-carrarese/hxbCALV0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45255.86458333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45255.86458333334</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45255.86458333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45256.52083333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-olbia/fucyFzNn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-gubbio/SheqDEia/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V146"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,32 +8156,32 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.21</v>
+        <v>1.84</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.65</v>
+        <v>1.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.31</v>
+        <v>4.28</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.16</v>
+        <v>6.35</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>2.21</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.44</v>
+        <v>2.76</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.28</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.35</v>
+        <v>3.16</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.08</v>
+        <v>2.53</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.31</v>
+        <v>2.52</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.83</v>
+        <v>3.01</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R110" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -10601,15 +10601,15 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.31</v>
+        <v>2.9</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>5.35</v>
+        <v>3.41</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>4.03</v>
+        <v>3.51</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
       <c r="J124" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.9</v>
+        <v>3.31</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.41</v>
+        <v>5.35</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.51</v>
+        <v>4.03</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
       <c r="J142" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.19</v>
+        <v>1.61</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.21</v>
+        <v>3.54</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.28</v>
+        <v>5.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.2</v>
+        <v>6.36</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Fermana</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.61</v>
+        <v>2.9</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.54</v>
+        <v>2.91</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.62</v>
+        <v>2.82</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>5.46</v>
+        <v>2.79</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>6.36</v>
+        <v>2.79</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2.82</v>
+        <v>3.46</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.79</v>
+        <v>2.28</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -13886,6 +13886,98 @@
       <c r="V146" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-gubbio/SheqDEia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45257.86458333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-pineto/0vu3XrwE/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>3.16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>2.22</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>2</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.35</v>
+        <v>3.04</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.55</v>
+        <v>3.18</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.53</v>
+        <v>3.21</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.59</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>2.98</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>5.08</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>5.06</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.53</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.92</v>
+        <v>3.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.01</v>
+        <v>2.85</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.36</v>
+        <v>3.09</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.34</v>
+        <v>2.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.96</v>
+        <v>3.28</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.35</v>
+        <v>4.34</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R109" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -10509,15 +10509,15 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.46</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:53</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.08</v>
+        <v>2.53</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.31</v>
+        <v>2.52</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.83</v>
+        <v>3.01</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:53</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sassari-torres/hvaGhmAF/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.9</v>
+        <v>5.23</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.08</v>
+        <v>5.54</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.41</v>
+        <v>9.94</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.51</v>
+        <v>14.54</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
       <c r="J124" t="n">
-        <v>1.63</v>
+        <v>2.64</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.35</v>
+        <v>2.74</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
       <c r="J125" t="n">
-        <v>2.64</v>
+        <v>1.63</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,31 +11912,31 @@
         </is>
       </c>
       <c r="L125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>3.31</v>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>12/11/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O125" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.74</v>
+        <v>5.35</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.5</v>
+        <v>4.03</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>5.23</v>
+        <v>2.9</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>5.54</v>
+        <v>3.08</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>9.94</v>
+        <v>3.41</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>14.54</v>
+        <v>3.51</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Fermana</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
       <c r="J142" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.61</v>
+        <v>3.19</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.54</v>
+        <v>3.21</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.62</v>
+        <v>3.46</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.46</v>
+        <v>2.28</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>6.36</v>
+        <v>2.2</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Entella</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.51</v>
+        <v>1.6</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.9</v>
+        <v>1.61</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.91</v>
+        <v>3.54</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2.82</v>
+        <v>3.62</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.79</v>
+        <v>5.46</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.79</v>
+        <v>6.36</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.19</v>
+        <v>2.9</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.28</v>
+        <v>2.79</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -13978,6 +13978,558 @@
       <c r="V147" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-pineto/0vu3XrwE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45262.67708333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:10</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-juventus/dn2a9WjO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45262.67708333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-pescara/nHULQXLb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>01/12/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-spal/00S9TZyt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45262.86458333334</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>01/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>01/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>01/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-lucchese/OKlhBhMB/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:01</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.64</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.08</v>
+        <v>3.69</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:47</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>01/09/2023 18:56</t>
+          <t>01/09/2023 20:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/09/2023 15:21</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.57</v>
+        <v>3.17</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.73</v>
+        <v>4.3</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>01/09/2023 18:51</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.87</v>
+        <v>4.69</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>31/08/2023 09:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.51</v>
+        <v>9.31</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>01/09/2023 17:57</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sestri Levante</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.74</v>
+        <v>2.58</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:01</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.64</v>
+        <v>3.47</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.69</v>
+        <v>3.08</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:47</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>01/09/2023 20:02</t>
+          <t>01/09/2023 18:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-sestri-levante/hMJgt422/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-arezzo/llD2vrXE/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 15:21</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.17</v>
+        <v>3.57</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.3</v>
+        <v>3.73</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 18:51</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.69</v>
+        <v>5.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>31/08/2023 09:12</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>9.31</v>
+        <v>6.51</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 17:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-fermana/nLjXO2XR/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-pineto/40waKMuq/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.33</v>
+        <v>3.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.24</v>
+        <v>3.54</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.16</v>
+        <v>2.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.34</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.23</v>
+        <v>3.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>2.44</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.26</v>
+        <v>2.33</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>2.24</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.26</v>
+        <v>3.16</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.29</v>
+        <v>1.98</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.54</v>
+        <v>1.77</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>09/09/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>07/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>09/09/2023 18:06</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>07/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>09/09/2023 18:06</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-lucchese/Ece9zZVt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.24</v>
+        <v>1.79</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.06</v>
+        <v>3.77</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.05</v>
+        <v>5.72</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>4.79</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>4.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.42</v>
+        <v>2.97</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>2.53</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.77</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.72</v>
+        <v>3.42</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.79</v>
+        <v>3.03</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.39</v>
+        <v>4.94</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>10.93</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -3149,46 +3149,46 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.66</v>
+        <v>4.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.95</v>
+        <v>3.36</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,24 +3196,24 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.94</v>
+        <v>1.71</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Recanatese</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:22</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.18</v>
+        <v>2.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/09/2023 18:26</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-rimini/Q7FM0Vqn/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.09</v>
+        <v>2.65</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.18</v>
+        <v>2.77</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.07</v>
+        <v>3.04</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:28</t>
+          <t>19/09/2023 18:09</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.69</v>
+        <v>2.82</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 06:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/09/2023 18:29</t>
+          <t>19/09/2023 18:16</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:09</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>19/09/2023 18:16</t>
+          <t>19/09/2023 18:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-gubbio/lApCtSbU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-recanatese/tps4rlUH/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.55</v>
+        <v>2.09</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.93</v>
+        <v>2.57</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.18</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.71</v>
+        <v>3.69</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>18/09/2023 06:42</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/09/2023 18:22</t>
+          <t>19/09/2023 18:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-entella/Gd8ZcTT4/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-olbia/KUhepAa5/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.3</v>
+        <v>5.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>18/09/2023 09:12</t>
+          <t>19/09/2023 05:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>7.72</v>
+        <v>6.34</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/09/2023 20:21</t>
+          <t>19/09/2023 20:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.24</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.02</v>
+        <v>2.74</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.34</v>
+        <v>2.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/09/2023 20:42</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-us-pontedera/EXBI1BUu/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.43</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:36</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>5.3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>19/09/2023 05:12</t>
+          <t>18/09/2023 09:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.55</v>
+        <v>7.72</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-ancona/2gr0qUEB/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.6</v>
+        <v>3.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.18</v>
+        <v>3.47</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:37</t>
+          <t>19/09/2023 20:36</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-spal/AJo8s8qO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-pescara/KUEQakah/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.71</v>
+        <v>6.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.53</v>
+        <v>3.59</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>6.46</v>
+        <v>3.71</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75</v>
+        <v>4.04</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>5.4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.49</v>
+        <v>4.99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>6.14</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.9</v>
+        <v>4.21</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.54</v>
+        <v>1.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.99</v>
+        <v>4.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>4.83</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.25</v>
+        <v>2.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.45</v>
+        <v>2.83</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.6</v>
+        <v>3.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,32 +8248,32 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R85" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:27</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.02</v>
+        <v>3.55</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.07</v>
+        <v>4.14</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:27</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.14</v>
+        <v>5.07</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.41</v>
+        <v>4.72</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4</v>
+        <v>5.29</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.29</v>
+        <v>4.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.28</v>
+        <v>3.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>6.35</v>
+        <v>4.34</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.34</v>
+        <v>6.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>3.09</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.16</v>
+        <v>2.35</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>3.01</v>
+        <v>2.28</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.37</v>
+        <v>3.22</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.28</v>
+        <v>3.01</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.22</v>
+        <v>2.37</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>5.23</v>
+        <v>2.9</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5.54</v>
+        <v>3.08</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>9.94</v>
+        <v>3.41</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>14.54</v>
+        <v>3.51</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
       <c r="J124" t="n">
-        <v>2.64</v>
+        <v>1.63</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,31 +11820,31 @@
         </is>
       </c>
       <c r="L124" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>3.31</v>
       </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>12/11/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O124" t="inlineStr">
         <is>
           <t>09/11/2023 09:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.74</v>
+        <v>5.35</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.5</v>
+        <v>4.03</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>1</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
       <c r="J125" t="n">
-        <v>1.63</v>
+        <v>2.64</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>5.35</v>
+        <v>2.74</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
       <c r="J126" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.9</v>
+        <v>5.23</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.08</v>
+        <v>5.54</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.41</v>
+        <v>9.94</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.51</v>
+        <v>14.54</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.89</v>
+        <v>5.85</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>6.12</v>
+        <v>6.56</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>5.85</v>
+        <v>3.89</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>6.56</v>
+        <v>6.12</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.31</v>
+        <v>3.04</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.68</v>
+        <v>2.98</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.54</v>
+        <v>3.41</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.61</v>
+        <v>3.7</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.04</v>
+        <v>3.31</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2.98</v>
+        <v>3.68</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.41</v>
+        <v>4.54</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.7</v>
+        <v>5.61</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
       <c r="J142" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.19</v>
+        <v>1.61</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.21</v>
+        <v>3.54</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.46</v>
+        <v>3.62</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.28</v>
+        <v>5.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.2</v>
+        <v>6.36</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Fermana</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.61</v>
+        <v>2.9</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.54</v>
+        <v>2.91</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.62</v>
+        <v>2.82</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>5.46</v>
+        <v>2.79</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>6.36</v>
+        <v>2.79</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2.82</v>
+        <v>3.46</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.79</v>
+        <v>2.28</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:25</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.15</v>
+        <v>2.97</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.72</v>
+        <v>3.12</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.16</v>
+        <v>3.17</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.46</v>
+        <v>1.48</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:25</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2.97</v>
+        <v>4.15</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.12</v>
+        <v>5.72</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>3.17</v>
+        <v>7.16</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,2398 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-lucchese/OKlhBhMB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-perugia/E3WDSgin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45263.86458333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-rimini/4hPQPiy5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45265.77083333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-pescara/nyFTIqOK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45266.67708333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>04/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-juventus/86H9GYu1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45266.75</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>06/12/2023 17:15</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>06/12/2023 17:30</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>06/12/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-rimini/ENGLK5g8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45269.67708333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45269.67708333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:10</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45269.67708333334</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-entella/dnl4wB54/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45269.86458333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>08/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:44</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>08/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>08/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:49</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-cesena/MTeitDLo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>3</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>09/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>3</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45270.67708333334</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-vis-pesaro/ltRxNkLN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45276.67708333334</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-juventus/KpgqU6Sj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45276.67708333334</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-rimini/86ZwjlkA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45276.86458333334</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-spal/UFzziUZ3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45277.58333333334</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45277.58333333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45277.67708333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-sestri-levante/jVOrk84G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45277.86458333334</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pescara/UanCykzH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45277.86458333334</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-lucchese/l22DZS4T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45278.85416666666</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-perugia/AB39z9kN/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>4.23</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.21</v>
+        <v>1.77</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.77</v>
+        <v>4.21</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/09/2023 15:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:06</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-rimini/CrECZhom/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>3.16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>2.22</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>2</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,32 +8156,32 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.98</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>5.08</v>
+        <v>2.18</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>5.06</v>
+        <v>2.13</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.63</v>
+        <v>3.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.61</v>
+        <v>2.98</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.18</v>
+        <v>2.5</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -11713,14 +11713,14 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.24</v>
+        <v>3.31</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.08</v>
+        <v>2.81</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.41</v>
+        <v>2.74</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.51</v>
+        <v>2.5</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.31</v>
+        <v>2.24</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.74</v>
+        <v>3.41</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.5</v>
+        <v>3.51</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.04</v>
+        <v>3.31</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.98</v>
+        <v>3.68</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.41</v>
+        <v>4.54</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.7</v>
+        <v>5.61</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.31</v>
+        <v>3.04</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.68</v>
+        <v>2.98</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.54</v>
+        <v>3.41</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.61</v>
+        <v>3.7</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Fermana</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
       <c r="J142" t="n">
-        <v>1.6</v>
+        <v>2.93</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.61</v>
+        <v>3.19</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.54</v>
+        <v>3.21</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.62</v>
+        <v>3.46</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.46</v>
+        <v>2.28</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>6.36</v>
+        <v>2.2</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:44</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Entella</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.51</v>
+        <v>1.6</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.9</v>
+        <v>1.61</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.91</v>
+        <v>3.54</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2.82</v>
+        <v>3.62</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.79</v>
+        <v>5.46</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.79</v>
+        <v>6.36</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:44</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-fermana/x42WFG7t/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.19</v>
+        <v>2.9</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.28</v>
+        <v>2.79</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
       <c r="J154" t="n">
-        <v>4.46</v>
+        <v>2.14</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>1.83</v>
+        <v>3.55</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.95</v>
+        <v>3.98</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-perugia/E3WDSgin/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
         <v>1</v>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Sestri Levante</t>
-        </is>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
       <c r="J156" t="n">
-        <v>2.14</v>
+        <v>4.46</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.14</v>
+        <v>4.1</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.55</v>
+        <v>1.83</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.98</v>
+        <v>1.95</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-perugia/E3WDSgin/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.42</v>
+        <v>4.6</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.76</v>
+        <v>6.71</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>6.24</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1.49</v>
+        <v>2.42</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.36</v>
+        <v>3.16</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,32 +15884,32 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.6</v>
+        <v>2.89</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
           <t>10/12/2023 13:55</t>
         </is>
       </c>
-      <c r="R168" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>08/12/2023 05:43</t>
-        </is>
-      </c>
-      <c r="T168" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="U168" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:55</t>
-        </is>
-      </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>3.16</v>
+        <v>1.65</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:51</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3</v>
+        <v>4.76</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.54</v>
+        <v>6.24</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
         </is>
       </c>
     </row>
@@ -16922,6 +16922,98 @@
       <c r="V179" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-perugia/AB39z9kN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45279.85416666666</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>18/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-juventus/0vJXH3wR/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.26</v>
+        <v>4.23</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.23</v>
+        <v>4.21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/09/2023 14:42</t>
+          <t>08/09/2023 06:42</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>09/09/2023 18:17</t>
+          <t>09/09/2023 18:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.33</v>
+        <v>3.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.24</v>
+        <v>3.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.16</v>
+        <v>2.26</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/09/2023 15:12</t>
+          <t>07/09/2023 14:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.34</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>09/09/2023 18:03</t>
+          <t>09/09/2023 18:17</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-carrarese/KxmsXaPl/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.23</v>
+        <v>2.33</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.21</v>
+        <v>2.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>3.16</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/09/2023 06:42</t>
+          <t>07/09/2023 15:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>3.34</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>09/09/2023 18:29</t>
+          <t>09/09/2023 18:03</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-us-pontedera/S2jkVwf1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-gubbio/xEcxYuAr/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.53</v>
+        <v>2.36</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.79</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.77</v>
+        <v>3.02</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.72</v>
+        <v>2.97</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.79</v>
+        <v>3.01</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:37</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.53</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>3.77</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.42</v>
+        <v>5.72</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>4.79</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:37</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-juventus/YDjqmCFn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pineto/Yc2LXWFa/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.91</v>
+        <v>3.93</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:47</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.54</v>
+        <v>7.76</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>15/09/2023 06:42</t>
+          <t>14/09/2023 09:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.51</v>
+        <v>7.35</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:08</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.93</v>
+        <v>2.91</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:47</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>7.76</v>
+        <v>2.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>14/09/2023 09:13</t>
+          <t>15/09/2023 06:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>7.35</v>
+        <v>2.51</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>16/09/2023 17:08</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-vis-pesaro/2X6PWjV5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-lucchese/h2Zolh0t/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.76</v>
+        <v>4.94</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.39</v>
+        <v>5.89</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.39</v>
+        <v>10.93</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>16/09/2023 20:40</t>
+          <t>16/09/2023 20:39</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.39</v>
+        <v>3.76</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:41</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.35</v>
+        <v>4.39</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.94</v>
+        <v>4.39</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:40</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-arezzo/xjaxUlFO/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.84</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.93</v>
+        <v>6.94</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:39</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-sestri-levante/6Rliojpa/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.53</v>
+        <v>3.59</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.46</v>
+        <v>3.71</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.71</v>
+        <v>6.46</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>4.04</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>5.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.03</v>
+        <v>1.84</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.48</v>
+        <v>1.71</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.61</v>
+        <v>2.27</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:41</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.67</v>
+        <v>3.24</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.68</v>
+        <v>3.03</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.22</v>
+        <v>4.03</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>6.19</v>
+        <v>3.48</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:44</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5.4</v>
+        <v>4.16</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:40</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.16</v>
+        <v>1.61</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:41</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.06</v>
+        <v>3.67</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.49</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.44</v>
+        <v>6.22</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.88</v>
+        <v>6.19</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 20:40</t>
+          <t>23/09/2023 20:44</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-perugia/vgl3D8Ti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-vis-pesaro/2DAoeRDN/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>4.99</v>
+        <v>2.49</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6.14</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.52</v>
+        <v>3.54</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.25</v>
+        <v>6.14</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.21</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.49</v>
+        <v>4.83</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.32</v>
+        <v>6.25</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.83</v>
+        <v>3.45</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.14</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.99</v>
+        <v>5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.12</v>
+        <v>1.68</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.29</v>
+        <v>1.81</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>5.14</v>
+        <v>3.16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.29</v>
+        <v>2.98</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3.16</v>
+        <v>1.84</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.85</v>
+        <v>1.99</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.22</v>
+        <v>4.12</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>4.29</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.62</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:24</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:27</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.55</v>
+        <v>4.02</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.14</v>
+        <v>5.07</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>25/10/2023 18:28</t>
+          <t>25/10/2023 18:24</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:27</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.02</v>
+        <v>3.55</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.07</v>
+        <v>4.14</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>25/10/2023 18:24</t>
+          <t>25/10/2023 18:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-juventus/AakZuk9C/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-fermana/vZgwu9OI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.41</v>
+        <v>4.72</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.84</v>
+        <v>3.34</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.03</v>
+        <v>4.28</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>7.15</v>
+        <v>4.8</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.72</v>
+        <v>3.41</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.29</v>
+        <v>4</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.84</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.28</v>
+        <v>5.03</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.8</v>
+        <v>7.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.21</v>
+        <v>2.34</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.31</v>
+        <v>3.09</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.16</v>
+        <v>2.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.28</v>
+        <v>3.01</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.22</v>
+        <v>2.37</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>3.01</v>
+        <v>2.28</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.59</v>
+        <v>3.36</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.37</v>
+        <v>3.22</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-cesena/I1KDYRIq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-arezzo/z3lLi7PL/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>4.02</v>
+        <v>3.67</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.44</v>
+        <v>3.8</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,63 +11253,63 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.67</v>
+        <v>4.02</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.8</v>
+        <v>4.44</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.64</v>
+        <v>3.38</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.31</v>
+        <v>1.24</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.8</v>
+        <v>5.23</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2.81</v>
+        <v>5.54</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.74</v>
+        <v>9.94</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.5</v>
+        <v>14.54</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
       <c r="J124" t="n">
-        <v>1.63</v>
+        <v>2.64</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.06</v>
+        <v>3.31</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>5.35</v>
+        <v>2.74</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Pontedera</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
       <c r="J125" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.9</v>
+        <v>3.31</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.41</v>
+        <v>5.35</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.51</v>
+        <v>4.03</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>5.23</v>
+        <v>2.9</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>5.54</v>
+        <v>3.08</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>9.94</v>
+        <v>3.41</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>14.54</v>
+        <v>3.51</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2.77</v>
+        <v>1.49</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.83</v>
+        <v>4.18</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.08</v>
+        <v>4.75</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.59</v>
+        <v>5.21</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.33</v>
+        <v>8.52</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-entella/2DYapPHe/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.49</v>
+        <v>2.77</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.37</v>
+        <v>3.3</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.18</v>
+        <v>2.83</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.75</v>
+        <v>3.08</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.21</v>
+        <v>2.59</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>8.52</v>
+        <v>2.33</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-entella/2DYapPHe/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.85</v>
+        <v>3.89</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>6.56</v>
+        <v>6.12</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.89</v>
+        <v>5.85</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>6.12</v>
+        <v>6.56</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,14 +13277,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.23</v>
+        <v>2.97</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.29</v>
+        <v>3.51</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-arezzo/pCf4Cs1l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-carrarese/hxbCALV0/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2.97</v>
+        <v>3.23</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.51</v>
+        <v>3.29</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-carrarese/hxbCALV0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-arezzo/pCf4Cs1l/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1.34</v>
+        <v>2.07</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.35</v>
+        <v>2.43</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:07</t>
+          <t>02/12/2023 16:14</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.33</v>
+        <v>3.18</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.63</v>
+        <v>3.23</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:10</t>
+          <t>02/12/2023 16:13</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>8.94</v>
+        <v>3.38</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>10.14</v>
+        <v>2.98</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:10</t>
+          <t>02/12/2023 16:14</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-juventus/dn2a9WjO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-pescara/nHULQXLb/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.07</v>
+        <v>1.34</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.43</v>
+        <v>1.35</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:14</t>
+          <t>02/12/2023 16:07</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.18</v>
+        <v>4.33</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.23</v>
+        <v>4.63</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:13</t>
+          <t>02/12/2023 16:10</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.38</v>
+        <v>8.94</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.98</v>
+        <v>10.14</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:14</t>
+          <t>02/12/2023 16:10</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-pescara/nHULQXLb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-juventus/dn2a9WjO/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.46</v>
+        <v>2.03</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.12</v>
+        <v>3.75</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.17</v>
+        <v>4.3</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-spal/00S9TZyt/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:25</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.15</v>
+        <v>2.97</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.72</v>
+        <v>3.12</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.16</v>
+        <v>3.17</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.03</v>
+        <v>1.48</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:25</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>2.96</v>
+        <v>3.56</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3</v>
+        <v>4.15</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.75</v>
+        <v>5.72</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>4.3</v>
+        <v>7.16</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-spal/00S9TZyt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,63 +14565,63 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.14</v>
+        <v>4.71</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.14</v>
+        <v>7.44</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.98</v>
+        <v>1.52</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
         </is>
       </c>
     </row>
@@ -14649,34 +14649,34 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>4.71</v>
+        <v>4.46</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>7.44</v>
+        <v>4.1</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="N155" t="n">
@@ -14684,36 +14684,36 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:53</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-perugia/E3WDSgin/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
       <c r="J156" t="n">
-        <v>4.46</v>
+        <v>2.14</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>3.55</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.95</v>
+        <v>3.98</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:53</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-perugia/E3WDSgin/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,63 +15209,63 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
         </is>
       </c>
     </row>
@@ -15293,71 +15293,71 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.45</v>
+        <v>2.33</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.49</v>
+        <v>2.89</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>6.91</v>
+        <v>3.53</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:10</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.65</v>
+        <v>1.51</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.71</v>
+        <v>1.45</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2.77</v>
+        <v>3.9</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.91</v>
+        <v>4.49</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.82</v>
+        <v>5.8</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.9</v>
+        <v>6.91</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:10</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.94</v>
+        <v>1.49</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.47</v>
+        <v>6.71</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.58</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.49</v>
+        <v>2.42</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.36</v>
+        <v>3.16</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,32 +15792,32 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4.6</v>
+        <v>2.89</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
           <t>10/12/2023 13:55</t>
         </is>
       </c>
-      <c r="R167" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>08/12/2023 05:43</t>
-        </is>
-      </c>
-      <c r="T167" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="U167" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:55</t>
-        </is>
-      </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.16</v>
+        <v>1.65</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:51</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3</v>
+        <v>4.76</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.54</v>
+        <v>6.24</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15945,63 +15945,63 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>1.74</v>
+        <v>2.94</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.42</v>
+        <v>2.92</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.76</v>
+        <v>2.47</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>6.24</v>
+        <v>2.58</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>1.81</v>
+        <v>3.07</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.23</v>
+        <v>2.45</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.92</v>
+        <v>3.04</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>3.07</v>
+        <v>1.81</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.45</v>
+        <v>4.23</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.04</v>
+        <v>4.92</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,14 +16681,14 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:36</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.38</v>
+        <v>2.94</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:41</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:41</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pescara/UanCykzH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-lucchese/l22DZS4T/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,14 +16773,14 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.27</v>
+        <v>3.45</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:36</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.94</v>
+        <v>3.38</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:41</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:41</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-lucchese/l22DZS4T/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pescara/UanCykzH/</t>
         </is>
       </c>
     </row>
@@ -17014,6 +17014,374 @@
       <c r="V180" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-juventus/0vJXH3wR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45282.77083333334</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Pineto</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-pineto/zZQloa3r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45282.77083333334</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Lucchese</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>22/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-ancona/rwsjmnZS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45282.86458333334</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Gubbio</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-gubbio/8KEC4m43/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45282.86458333334</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Pontedera</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-carrarese/tEMQtpCd/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V184"/>
+  <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Carrarese</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.49</v>
+        <v>4.99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>6.14</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.83</v>
+        <v>3.49</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.9</v>
+        <v>4.21</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>09/10/2023 20:31</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.54</v>
+        <v>1.52</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>09/10/2023 19:22</t>
+          <t>09/10/2023 20:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>4.99</v>
+        <v>4.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,11 +6684,11 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.21</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:44</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/10/2023 20:43</t>
+          <t>09/10/2023 20:28</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-cesena/AaNV4ysk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>4.83</v>
+        <v>2.49</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6.25</v>
+        <v>2.32</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.45</v>
+        <v>2.83</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:44</t>
+          <t>09/10/2023 20:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.6</v>
+        <v>3.54</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/10/2023 20:28</t>
+          <t>09/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-perugia/ljMZ3ede/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-carrarese/U1wX2FB1/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.69</v>
+        <v>5.62</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>5.23</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.94</v>
+        <v>11.06</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.16</v>
+        <v>13.27</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>15/10/2023 18:00</t>
+          <t>15/10/2023 18:26</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.62</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.23</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>11.06</v>
+        <v>5.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.27</v>
+        <v>7.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>15/10/2023 18:26</t>
+          <t>15/10/2023 18:00</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sestri-levante/ALb6HEQf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-fermana/SAlzXgQs/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.14</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1.99</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.68</v>
+        <v>4.12</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>4.29</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 13:52</t>
+          <t>22/10/2023 13:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.16</v>
+        <v>5.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.98</v>
+        <v>3.29</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>22/10/2023 13:54</t>
+          <t>22/10/2023 13:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-entella/djxmUiA0/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.84</v>
+        <v>3.16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.12</v>
+        <v>2.22</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.29</v>
+        <v>2</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/10/2023 13:53</t>
+          <t>22/10/2023 13:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-us-pontedera/rmbIqX9m/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-perugia/I5QeSVvD/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>5.08</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>5.06</v>
+        <v>2.62</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:24</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.8</v>
+        <v>5.29</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.4</v>
+        <v>3.84</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.41</v>
+        <v>5.03</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4</v>
+        <v>7.15</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.29</v>
+        <v>2.9</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.84</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.03</v>
+        <v>3.41</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>7.15</v>
+        <v>4</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Gubbio</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.85</v>
+        <v>3.01</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.96</v>
+        <v>3.28</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.09</v>
+        <v>3.36</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.35</v>
+        <v>4.34</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.92</v>
+        <v>2.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.28</v>
+        <v>2.76</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.36</v>
+        <v>3.31</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.34</v>
+        <v>3.16</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10141,30 +10141,30 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,15 +10172,15 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,15 +10188,15 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.28</v>
+        <v>3.09</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.35</v>
+        <v>2.35</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.21</v>
+        <v>1.84</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.65</v>
+        <v>1.65</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>4.28</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.16</v>
+        <v>6.35</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10417,46 +10417,46 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.05</v>
+        <v>2.53</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.58</v>
+        <v>3.03</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,24 +10464,24 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.46</v>
+        <v>3.01</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R111" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.67</v>
+        <v>4.02</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.8</v>
+        <v>4.44</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>06/11/2023 20:44</t>
+          <t>06/11/2023 20:36</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,63 +11253,63 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.02</v>
+        <v>3.67</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.44</v>
+        <v>3.8</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>06/11/2023 20:36</t>
+          <t>06/11/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-fermana/QRNLW5md/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-sestri-levante/6N08f9u3/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.49</v>
+        <v>2.77</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.37</v>
+        <v>3.3</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.18</v>
+        <v>2.83</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.75</v>
+        <v>3.08</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.21</v>
+        <v>2.59</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>8.52</v>
+        <v>2.33</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>13/11/2023 20:12</t>
+          <t>13/11/2023 20:43</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-entella/2DYapPHe/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2.77</v>
+        <v>1.49</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.3</v>
+        <v>1.37</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.83</v>
+        <v>4.18</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.08</v>
+        <v>4.75</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.59</v>
+        <v>5.21</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.33</v>
+        <v>8.52</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>13/11/2023 20:43</t>
+          <t>13/11/2023 20:12</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-entella/2DYapPHe/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-rimini/f7Lo8S92/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.31</v>
+        <v>3.04</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.68</v>
+        <v>2.98</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.54</v>
+        <v>3.41</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.61</v>
+        <v>3.7</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.04</v>
+        <v>3.31</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2.98</v>
+        <v>3.68</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.41</v>
+        <v>4.54</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.7</v>
+        <v>5.61</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.19</v>
+        <v>2.9</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.28</v>
+        <v>2.79</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2.82</v>
+        <v>3.46</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.79</v>
+        <v>2.28</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.65</v>
+        <v>1.51</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.71</v>
+        <v>1.45</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2.77</v>
+        <v>3.9</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2.91</v>
+        <v>4.49</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>2.82</v>
+        <v>5.8</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>2.9</v>
+        <v>6.91</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:10</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,63 +15301,63 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.45</v>
+        <v>2.33</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.49</v>
+        <v>2.89</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>6.91</v>
+        <v>3.53</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:10</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,14 +16681,14 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.27</v>
+        <v>3.45</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:36</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.94</v>
+        <v>3.38</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:41</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.51</v>
+        <v>2.25</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>17/12/2023 20:28</t>
+          <t>17/12/2023 20:41</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-lucchese/l22DZS4T/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pescara/UanCykzH/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,14 +16773,14 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:36</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.38</v>
+        <v>2.94</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:41</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.25</v>
+        <v>4.51</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>17/12/2023 20:41</t>
+          <t>17/12/2023 20:28</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-pescara/UanCykzH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-lucchese/l22DZS4T/</t>
         </is>
       </c>
     </row>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -17049,14 +17049,14 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -17064,15 +17064,15 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>22/12/2023 18:29</t>
+          <t>22/12/2023 18:25</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3.32</v>
+        <v>3.02</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -17080,15 +17080,15 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3.34</v>
+        <v>3.55</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>22/12/2023 18:29</t>
+          <t>22/12/2023 18:25</t>
         </is>
       </c>
       <c r="R181" t="n">
-        <v>5.04</v>
+        <v>3.42</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -17096,16 +17096,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>6.73</v>
+        <v>5.47</v>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>22/12/2023 18:29</t>
+          <t>22/12/2023 18:25</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-pineto/zZQloa3r/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-ancona/rwsjmnZS/</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -17141,14 +17141,14 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22/12/2023 18:25</t>
+          <t>22/12/2023 18:29</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.02</v>
+        <v>3.32</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>22/12/2023 18:25</t>
+          <t>22/12/2023 18:29</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>3.42</v>
+        <v>5.04</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>5.47</v>
+        <v>6.73</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>22/12/2023 18:25</t>
+          <t>22/12/2023 18:29</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-ancona/rwsjmnZS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-pineto/zZQloa3r/</t>
         </is>
       </c>
     </row>
@@ -17382,6 +17382,558 @@
       <c r="V184" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-carrarese/tEMQtpCd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45283.67708333334</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-vis-pesaro/lGsnlSJM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45283.77083333334</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Recanatese</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Entella</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-entella/fHA85Tlc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45283.77083333334</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sestri Levante</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:35</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:35</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:35</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-arezzo/jq4H37J9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45283.77083333334</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-cesena/pnTHr6sp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45283.77083333334</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-olbia/UZ2L2RYF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45283.86458333334</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-fermana/2NNMsQdj/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.76</v>
+        <v>3.08</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.72</v>
+        <v>2.41</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.29</v>
+        <v>2.48</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.92</v>
+        <v>1.85</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.84</v>
+        <v>3.21</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.41</v>
+        <v>4.72</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.48</v>
+        <v>5.29</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,14 +13277,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.07</v>
+        <v>2.99</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.97</v>
+        <v>3.23</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.51</v>
+        <v>3.29</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>25/11/2023 18:25</t>
+          <t>25/11/2023 18:28</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-carrarese/hxbCALV0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-arezzo/pCf4Cs1l/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>2.99</v>
+        <v>3.07</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.23</v>
+        <v>2.97</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.29</v>
+        <v>3.51</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>25/11/2023 18:28</t>
+          <t>25/11/2023 18:25</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-arezzo/pCf4Cs1l/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-carrarese/hxbCALV0/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.07</v>
+        <v>1.34</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.43</v>
+        <v>1.35</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:14</t>
+          <t>02/12/2023 16:07</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.18</v>
+        <v>4.33</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.23</v>
+        <v>4.63</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:13</t>
+          <t>02/12/2023 16:10</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.38</v>
+        <v>8.94</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.98</v>
+        <v>10.14</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>02/12/2023 16:14</t>
+          <t>02/12/2023 16:10</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-pescara/nHULQXLb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-juventus/dn2a9WjO/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.34</v>
+        <v>2.07</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.35</v>
+        <v>2.43</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:07</t>
+          <t>02/12/2023 16:14</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4.33</v>
+        <v>3.18</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.63</v>
+        <v>3.23</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:10</t>
+          <t>02/12/2023 16:13</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>8.94</v>
+        <v>3.38</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>10.14</v>
+        <v>2.98</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>02/12/2023 16:10</t>
+          <t>02/12/2023 16:14</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-juventus/dn2a9WjO/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-pescara/nHULQXLb/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.03</v>
+        <v>2.46</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.75</v>
+        <v>3.12</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.3</v>
+        <v>3.17</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:21</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-spal/00S9TZyt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.46</v>
+        <v>1.48</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:25</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2.97</v>
+        <v>4.15</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.12</v>
+        <v>5.72</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>3.17</v>
+        <v>7.16</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:25</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.56</v>
+        <v>2.96</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>5.72</v>
+        <v>3.75</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>7.16</v>
+        <v>4.3</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:21</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-spal/00S9TZyt/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,63 +14565,63 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>4.71</v>
+        <v>2.14</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>7.44</v>
+        <v>2.14</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.8</v>
+        <v>2.95</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>1.79</v>
+        <v>3.55</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.52</v>
+        <v>3.98</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,63 +14749,63 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.14</v>
+        <v>4.71</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.14</v>
+        <v>7.44</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.98</v>
+        <v>1.52</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
         </is>
       </c>
     </row>
@@ -15201,71 +15201,71 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.45</v>
+        <v>2.33</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.49</v>
+        <v>2.89</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>09/12/2023 15:48</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>6.91</v>
+        <v>3.53</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:10</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>2.65</v>
+        <v>1.51</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.71</v>
+        <v>1.45</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2.77</v>
+        <v>3.9</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2.91</v>
+        <v>4.49</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 15:48</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.82</v>
+        <v>5.8</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.9</v>
+        <v>6.91</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:10</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-olbia/W4GsM9zU/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,63 +15393,63 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
-        <v>1.49</v>
+        <v>2.94</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.36</v>
+        <v>3.05</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>6.71</v>
+        <v>2.47</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>9.880000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>3.16</v>
+        <v>1.65</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:51</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>3</v>
+        <v>4.76</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.54</v>
+        <v>6.24</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.42</v>
+        <v>4.6</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.76</v>
+        <v>6.71</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>6.24</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
         </is>
       </c>
     </row>
@@ -15937,71 +15937,71 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>3</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>09/12/2023 02:13</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>10/12/2023 12:04</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>09/12/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P169" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>10/12/2023 12:04</t>
-        </is>
-      </c>
-      <c r="R169" t="n">
-        <v>2.47</v>
-      </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>4.17</v>
+        <v>1.89</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:06</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:10</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.46</v>
+        <v>4.27</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.04</v>
+        <v>4.42</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:06</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-juventus/KpgqU6Sj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-rimini/86ZwjlkA/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.89</v>
+        <v>4.17</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:06</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:10</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.27</v>
+        <v>2.46</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.42</v>
+        <v>2.04</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:06</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-rimini/86ZwjlkA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-juventus/KpgqU6Sj/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>3.07</v>
+        <v>1.81</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.45</v>
+        <v>4.23</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.04</v>
+        <v>4.92</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J175" t="n">
-        <v>1.81</v>
+        <v>3.07</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>4.23</v>
+        <v>2.45</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.92</v>
+        <v>3.04</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>3.74</v>
+        <v>4.2</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-entella/fHA85Tlc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-cesena/pnTHr6sp/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,14 +17601,14 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>2.39</v>
+        <v>3.54</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.62</v>
+        <v>3.74</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>3.11</v>
+        <v>2.14</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-arezzo/jq4H37J9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-entella/fHA85Tlc/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,14 +17693,14 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>23/12/2023 18:25</t>
+          <t>23/12/2023 16:35</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.41</v>
+        <v>2.82</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>23/12/2023 18:25</t>
+          <t>23/12/2023 16:35</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.23</v>
+        <v>3.11</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>1.9</v>
+        <v>2.71</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>23/12/2023 18:25</t>
+          <t>23/12/2023 16:35</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-cesena/pnTHr6sp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-arezzo/jq4H37J9/</t>
         </is>
       </c>
     </row>
@@ -17934,6 +17934,282 @@
       <c r="V190" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-fermana/2NNMsQdj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45297.67708333334</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:20</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:20</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>06/01/2024 15:20</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-rimini/f3obm7jQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45297.67708333334</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Fermana</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:06</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:06</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:06</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-carrarese/EPPhpJIl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>serie-c-group-b</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45297.67708333334</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Spal</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:11</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:07</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>04/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:11</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-spal/UexQrRbs/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-c-group-b_2023-2024.xlsx
+++ b/2023/italy_serie-c-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.66</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.57</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:35</t>
+          <t>02/09/2023 18:49</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.92</v>
+        <v>4.9</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>01/09/2023 18:13</t>
+          <t>01/09/2023 09:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.77</v>
+        <v>4.89</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>02/09/2023 20:25</t>
+          <t>02/09/2023 16:50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.57</v>
+        <v>3.34</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>02/09/2023 18:49</t>
+          <t>02/09/2023 20:35</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.9</v>
+        <v>3.92</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>01/09/2023 09:12</t>
+          <t>01/09/2023 18:13</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.89</v>
+        <v>3.77</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>02/09/2023 16:50</t>
+          <t>02/09/2023 20:25</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-ancona/z5BAxM1R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-juventus/vJVBHKP1/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>4.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.97</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.01</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>15/09/2023 20:36</t>
+          <t>15/09/2023 20:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.24</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>3.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>15/09/2023 20:40</t>
+          <t>15/09/2023 20:36</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-cesena/jgmKhYiP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-perugia/C4kmnWUh/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.96</v>
+        <v>1.62</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16/09/2023 20:44</t>
+          <t>16/09/2023 20:36</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2.73</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>16/09/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,48 +3080,48 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>16/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>14/09/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>16/09/2023 20:36</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="R29" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>14/09/2023 09:13</t>
         </is>
       </c>
-      <c r="P29" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>16/09/2023 20:41</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>14/09/2023 09:13</t>
-        </is>
-      </c>
       <c r="T29" t="n">
-        <v>6.94</v>
+        <v>2.83</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16/09/2023 20:36</t>
+          <t>16/09/2023 20:44</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-fermana/tO5TVApC/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-sassari-torres/OneYUUaI/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.12</v>
+        <v>3.36</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>22/09/2023 06:42</t>
+          <t>22/09/2023 09:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.71</v>
+        <v>6.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>23/09/2023 18:21</t>
+          <t>23/09/2023 18:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.36</v>
+        <v>3.12</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.82</v>
+        <v>3.38</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.53</v>
+        <v>3.59</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>22/09/2023 09:12</t>
+          <t>22/09/2023 06:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>6.46</v>
+        <v>3.71</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>23/09/2023 18:27</t>
+          <t>23/09/2023 18:21</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-arezzo/UssGA6DA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-recanatese/02kaElEo/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>4.04</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5.4</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:17</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.84</v>
+        <v>4.03</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.71</v>
+        <v>3.48</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>23/09/2023 20:15</t>
+          <t>23/09/2023 20:42</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>4.04</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.27</v>
+        <v>5.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.03</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:17</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.03</v>
+        <v>1.84</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.48</v>
+        <v>1.71</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>23/09/2023 20:42</t>
+          <t>23/09/2023 20:15</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-juventus/fm7wcmqB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-cesena/lA6sd7bH/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.58</v>
+        <v>3.83</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.27</v>
+        <v>3.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>15/10/2023 13:02</t>
+          <t>15/10/2023 13:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.83</v>
+        <v>3.58</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.97</v>
+        <v>4.27</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>15/10/2023 13:51</t>
+          <t>15/10/2023 13:02</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-sassari-torres/tKFHECAD/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-gubbio/AZwuWDul/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.95</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.57</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>4.46</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>12/10/2023 08:12</t>
+          <t>12/10/2023 08:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.84</v>
+        <v>5.14</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>15/10/2023 16:14</t>
+          <t>15/10/2023 16:06</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.46</v>
+        <v>3.13</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>12/10/2023 08:13</t>
+          <t>12/10/2023 08:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.14</v>
+        <v>2.84</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>15/10/2023 16:06</t>
+          <t>15/10/2023 16:14</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-ancona/Sd91IfBl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-arezzo/jkc8yzIQ/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.62</v>
+        <v>5.06</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:24</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.53</v>
+        <v>1.74</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>22/10/2023 18:21</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>5.08</v>
+        <v>2.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5.06</v>
+        <v>2.59</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.53</v>
+        <v>2.98</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>2.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-cesena/pCIsjZWJ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>22/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>22/10/2023 18:21</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>19/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>22/10/2023 18:21</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-pescara/W8UaRkfJ/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.59</v>
+        <v>2.13</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.98</v>
+        <v>3.61</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.5</v>
+        <v>3.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-recanatese/xAcMriPg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-ancona/O2HokgnQ/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>26/10/2023 18:02</t>
+          <t>26/10/2023 18:22</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>3.08</v>
+        <v>1.67</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.92</v>
+        <v>1.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.84</v>
+        <v>3.29</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.2</v>
+        <v>3.84</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.41</v>
+        <v>5.03</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.48</v>
+        <v>7.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>26/10/2023 18:26</t>
+          <t>26/10/2023 18:21</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.76</v>
+        <v>3.08</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.85</v>
+        <v>2.92</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.72</v>
+        <v>2.41</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.29</v>
+        <v>2.48</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>26/10/2023 18:29</t>
+          <t>26/10/2023 18:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-lucchese/htAgsa5n/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.84</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.03</v>
+        <v>4.72</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.15</v>
+        <v>5.29</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>26/10/2023 18:21</t>
+          <t>26/10/2023 18:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pineto/W8jVtVg6/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-sestri-levante/WW8ctJKh/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>26/10/2023 18:22</t>
+          <t>26/10/2023 18:02</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-arezzo/lp1QsBv0/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-vis-pesaro/McJNnLsP/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:50</t>
+          <t>29/10/2023 13:53</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:53</t>
+          <t>29/10/2023 13:50</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>29/10/2023 13:54</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-spal/Q3uZuAQ9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-olbia/Q7ezL8lp/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.79</v>
+        <v>2.01</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.54</v>
+        <v>1.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:41</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.59</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.26</v>
+        <v>3.86</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>29/10/2023 20:36</t>
+          <t>29/10/2023 20:42</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>2.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.93</v>
+        <v>3.54</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:41</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>2.8</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.59</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.86</v>
+        <v>2.26</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 20:42</t>
+          <t>29/10/2023 20:36</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-us-pontedera/4bfvKS3j/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-ancona/pAs6xyKH/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,63 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>26/10/2023 22:12</t>
+          <t>26/10/2023 21:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.34</v>
+        <v>6.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/10/2023 20:36</t>
+          <t>30/10/2023 20:42</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.65</v>
+        <v>1.92</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2.76</v>
+        <v>3.28</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.16</v>
+        <v>4.34</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-entella/hEmMrCti/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,14 +10149,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/10/2023 20:42</t>
+          <t>30/10/2023 20:36</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/vis-pesaro-pineto/KQvwuUuG/</t>
         </is>
       </c>
     </row>
@@ -10233,30 +10233,30 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,15 +10264,15 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -10280,15 +10280,15 @@
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.28</v>
+        <v>3.09</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>26/10/2023 21:12</t>
+          <t>26/10/2023 22:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.35</v>
+        <v>2.35</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-carrarese/W6w2wH4B/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/arezzo-gubbio/xpvbvck5/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.53</v>
+        <v>2.05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>05/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
           <t>05/11/2023 13:59</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>02/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>05/11/2023 13:59</t>
-        </is>
-      </c>
       <c r="R109" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>02/11/2023 18:43</t>
+          <t>02/11/2023 08:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.01</v>
+        <v>3.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 13:59</t>
+          <t>05/11/2023 13:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
         </is>
       </c>
     </row>
@@ -10601,46 +10601,46 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.05</v>
+        <v>2.53</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.58</v>
+        <v>3.03</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,24 +10648,24 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/11/2023 08:12</t>
+          <t>02/11/2023 18:43</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.46</v>
+        <v>3.01</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 13:57</t>
+          <t>05/11/2023 13:59</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-pescara/GhYow8AS/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-lucchese/COJHXoYk/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.12</v>
+        <v>3.41</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.64</v>
+        <v>3.38</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.38</v>
+        <v>4.64</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-olbia/hhvk7nP8/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-ancona/rsX14p9R/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>12/11/2023 19:40</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>5.23</v>
+        <v>3.31</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5.54</v>
+        <v>3.04</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:32</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>9.94</v>
+        <v>5.35</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>14.54</v>
+        <v>4.03</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>12/11/2023 20:03</t>
+          <t>12/11/2023 20:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.31</v>
+        <v>2.24</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.81</v>
+        <v>3.08</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.74</v>
+        <v>3.41</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.5</v>
+        <v>3.51</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>12/11/2023 20:44</t>
+          <t>12/11/2023 20:37</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 19:40</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.31</v>
+        <v>5.23</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.04</v>
+        <v>5.54</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:32</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>5.35</v>
+        <v>9.94</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.03</v>
+        <v>14.54</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/11/2023 20:26</t>
+          <t>12/11/2023 20:03</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-gubbio/t4X3qqX1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-vis-pesaro/6ouinomq/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.24</v>
+        <v>3.31</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.08</v>
+        <v>2.81</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.41</v>
+        <v>2.74</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.51</v>
+        <v>2.5</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/11/2023 20:37</t>
+          <t>12/11/2023 20:44</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-us-pontedera/E7Sc5QgL/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-carrarese/pxveo52k/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.15</v>
+        <v>3.76</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.89</v>
+        <v>6.19</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>16/11/2023 09:12</t>
+          <t>16/11/2023 21:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>6.12</v>
+        <v>7.29</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>19/11/2023 16:12</t>
+          <t>19/11/2023 16:10</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-lucchese/tICxbrne/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>6.19</v>
+        <v>5.85</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>16/11/2023 21:12</t>
+          <t>16/11/2023 18:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>7.29</v>
+        <v>6.56</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>19/11/2023 16:10</t>
+          <t>19/11/2023 16:11</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-lucchese/tICxbrne/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>5.85</v>
+        <v>3.89</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>16/11/2023 18:12</t>
+          <t>16/11/2023 09:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>6.56</v>
+        <v>6.12</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>19/11/2023 16:11</t>
+          <t>19/11/2023 16:12</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/gubbio-sestri-levante/EVApdMG7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-spal/SE8YbOWl/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Vis Pesaro</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.04</v>
+        <v>3.31</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.98</v>
+        <v>3.68</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.41</v>
+        <v>4.54</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.7</v>
+        <v>5.61</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>25/11/2023 16:08</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.31</v>
+        <v>3.04</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.68</v>
+        <v>2.98</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.54</v>
+        <v>3.41</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.61</v>
+        <v>3.7</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 16:08</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-vis-pesaro/Eoa8B1Gf/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-ancona/YVeuEfxg/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.9</v>
+        <v>3.19</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2.82</v>
+        <v>3.46</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.79</v>
+        <v>2.28</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>25/11/2023 20:43</t>
+          <t>25/11/2023 20:41</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.19</v>
+        <v>2.9</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.28</v>
+        <v>2.79</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.2</v>
+        <v>2.79</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>25/11/2023 20:41</t>
+          <t>25/11/2023 20:43</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pescara-cesena/z1mH9uo7/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-entella/nyiL8a0D/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.46</v>
+        <v>1.48</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2.97</v>
+        <v>4.15</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.12</v>
+        <v>5.72</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.17</v>
+        <v>7.16</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>02/12/2023 18:29</t>
+          <t>02/12/2023 18:26</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:25</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.15</v>
+        <v>2.97</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.72</v>
+        <v>3.12</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.16</v>
+        <v>3.17</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>02/12/2023 18:26</t>
+          <t>02/12/2023 18:29</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/carrarese-recanatese/2BmdACyI/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/ancona-us-pontedera/tdamCY65/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,63 +14565,63 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.14</v>
+        <v>4.71</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.14</v>
+        <v>7.44</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:59</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.55</v>
+        <v>1.79</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>01/12/2023 18:43</t>
+          <t>02/12/2023 02:13</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.98</v>
+        <v>1.52</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>03/12/2023 13:52</t>
+          <t>03/12/2023 13:45</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,63 +14749,63 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>4.71</v>
+        <v>2.14</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>7.44</v>
+        <v>2.14</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.8</v>
+        <v>2.95</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:59</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.79</v>
+        <v>3.55</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>02/12/2023 02:13</t>
+          <t>01/12/2023 18:43</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.52</v>
+        <v>3.98</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>03/12/2023 13:45</t>
+          <t>03/12/2023 13:52</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-sassari-torres/zw138j6U/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/pineto-sestri-levante/8QVHRD6h/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,63 +15209,63 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Pineto</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>08/12/2023 01:12</t>
+          <t>08/12/2023 04:42</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.53</v>
+        <v>2.9</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>09/12/2023 16:14</t>
+          <t>09/12/2023 16:07</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,63 +15393,63 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pineto</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/12/2023 04:42</t>
+          <t>08/12/2023 01:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.9</v>
+        <v>3.53</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/12/2023 16:07</t>
+          <t>09/12/2023 16:14</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/us-pontedera-gubbio/YD29HTro/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/juventus-pineto/rqOUOBjB/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Lucchese</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Ancona</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.94</v>
+        <v>1.49</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.47</v>
+        <v>6.71</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>09/12/2023 02:13</t>
+          <t>08/12/2023 05:43</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.58</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>10/12/2023 12:04</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>3</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>08/12/2023 05:43</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>08/12/2023 05:43</t>
-        </is>
-      </c>
-      <c r="P167" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:59</t>
-        </is>
-      </c>
-      <c r="R167" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>08/12/2023 05:43</t>
-        </is>
-      </c>
       <c r="T167" t="n">
-        <v>6.24</v>
+        <v>2.54</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>10/12/2023 13:59</t>
+          <t>10/12/2023 13:55</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Lucchese</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.6</v>
+        <v>3.42</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>6.71</v>
+        <v>4.76</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>9.880000000000001</v>
+        <v>6.24</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 13:59</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/lucchese-fermana/x6NYNV5H/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sassari-torres-arezzo/j9m8xVKA/</t>
         </is>
       </c>
     </row>
@@ -15937,71 +15937,71 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:51</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>08/12/2023 05:43</t>
+          <t>09/12/2023 02:13</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>10/12/2023 13:55</t>
+          <t>10/12/2023 12:04</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/rimini-carrarese/0KfeuXzh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-ancona/rqp0vijb/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Fermana</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rimini</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1.85</v>
+        <v>3.02</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.89</v>
+        <v>4.17</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:06</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:10</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>4.27</v>
+        <v>2.46</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>4.42</v>
+        <v>2.04</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>16/12/2023 16:06</t>
+          <t>16/12/2023 16:12</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-rimini/86ZwjlkA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-juventus/KpgqU6Sj/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Fermana</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>4.17</v>
+        <v>1.89</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:06</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:10</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.46</v>
+        <v>4.27</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.04</v>
+        <v>4.42</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>16/12/2023 16:12</t>
+          <t>16/12/2023 16:06</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/fermana-juventus/KpgqU6Sj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/entella-rimini/86ZwjlkA/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Olbia</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Torres</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>1.81</v>
+        <v>3.07</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.23</v>
+        <v>2.45</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.92</v>
+        <v>3.04</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>17/12/2023 13:59</t>
+          <t>17/12/2023 13:51</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>3.07</v>
+        <v>1.81</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.45</v>
+        <v>4.23</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.04</v>
+        <v>4.92</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>17/12/2023 13:51</t>
+          <t>17/12/2023 13:59</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/olbia-us-pontedera/0tWViAKc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/cesena-sassari-torres/6skuVnDp/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Spal</t>
         </is>
       </c>
       <c r="G186" t="n">
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Olbia</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Cesena</t>
-        </is>
-      </c>
-      <c r="I186" t="n">
-        <v>3</v>
-      </c>
       <c r="J186" t="n">
-        <v>3.35</v>
+        <v>1.94</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>4.2</v>
+        <v>1.97</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>2.91</v>
+        <v>3.17</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,32 +17540,32 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.41</v>
+        <v>2.96</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
+          <t>23/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>21/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
           <t>23/12/2023 18:25</t>
         </is>
       </c>
-      <c r="R186" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>21/12/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T186" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>23/12/2023 18:25</t>
-        </is>
-      </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-cesena/pnTHr6sp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/spal-olbia/UZ2L2RYF/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Recanatese</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,14 +17601,14 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>3.74</v>
+        <v>4.2</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>23/12/2023 18:28</t>
+          <t>23/12/2023 18:25</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-entella/fHA85Tlc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/perugia-cesena/pnTHr6sp/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Sestri Levante</t>
+          <t>Recanatese</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,14 +17693,14 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.39</v>
+        <v>3.54</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.62</v>
+        <v>3.74</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.11</v>
+        <v>2.14</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>23/12/2023 16:35</t>
+          <t>23/12/2023 18:28</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/sestri-levante-arezzo/jq4H37J9/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-c-group-b/recanatese-entella/fHA85Tlc/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Spal</t>
+          <t>Sestri Levante</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Olbia</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1.94</v>
+        <v>2.39</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>23/12/2023 18:25</t>
+        